--- a/Documentacion/Fase de construcción/Semana 11/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de construcción/Semana 11/Gestion de proyecto/GPRACG2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="197">
   <si>
     <t>Javier Madeiro</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Descripción Actividad</t>
   </si>
   <si>
-    <t>Alejandro Garcia</t>
-  </si>
-  <si>
     <t>Total Línea Gestión de Configuración y Control de Cambios</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>Vicente Acosta</t>
   </si>
   <si>
-    <t>Federico Trindad</t>
-  </si>
-  <si>
-    <t>Total Análistas</t>
-  </si>
-  <si>
     <t>Total Asistente de Verificación</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>21/10/2010</t>
   </si>
   <si>
-    <t>Evaluaciony Ajustes de Plan VyV</t>
-  </si>
-  <si>
     <t>V7</t>
   </si>
   <si>
@@ -280,21 +268,12 @@
     <t xml:space="preserve">Implementación </t>
   </si>
   <si>
-    <t>Implementando la función para que retorne las pistas segun el nivel del jugador</t>
-  </si>
-  <si>
-    <t>Implementacón y testing de la función para chequear la consistencia de los sospechosos e integración del caso de uso HardCoded de sospechosos</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
     <t>Reuniones de apoyo</t>
   </si>
   <si>
-    <t>Reunión con Diego para evaluar el diseño de la implementaciòn del tiempo en el juego, a prtir del documento de Juan.</t>
-  </si>
-  <si>
     <t>Implementación</t>
   </si>
   <si>
@@ -307,24 +286,12 @@
     <t>I2</t>
   </si>
   <si>
-    <t>Correción de bugs</t>
-  </si>
-  <si>
     <t>Desarrollo Func. nuevas</t>
   </si>
   <si>
-    <t>Correción de bus</t>
-  </si>
-  <si>
     <t>I1</t>
   </si>
   <si>
-    <t>Pagina para consola de administración, integrala al proyecto</t>
-  </si>
-  <si>
-    <t>Estuve buscando la manera de testar la página de administración dado que el problema de permisos en mi PC persiste y al problema de estilos se habia sumado el de Ajax, al final encontre una forma de hacerlo y pude terminar la misma.</t>
-  </si>
-  <si>
     <t>Corrección de Warning´s</t>
   </si>
   <si>
@@ -394,21 +361,12 @@
     <t>19/10/10</t>
   </si>
   <si>
-    <t>Informacion ciudades + imagenes</t>
-  </si>
-  <si>
-    <t>Imagenes de las ciudades + cargar base con valores de coordenadas correctos</t>
-  </si>
-  <si>
     <t>23/10/10</t>
   </si>
   <si>
     <t>Diseño pantallas gral + appbar</t>
   </si>
   <si>
-    <t>Juntada con implementadores para ver lo que faltaria de aqui en mas,application bar, correcion y agregados de pantallas en general.</t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
@@ -475,9 +433,6 @@
     <t>Autoestudio</t>
   </si>
   <si>
-    <t>Investigación sobre control del volúmen en el phone mediante utilización de slider. Faltaría adaptarlo a la nueva pantalla de Options.</t>
-  </si>
-  <si>
     <t>Creación de pantalla de Login, corrección de bugs detectados. Investigación sobre browser en phone. Planificamos las tareas a realizar la próxima semana con José.</t>
   </si>
   <si>
@@ -487,9 +442,6 @@
     <t>I9</t>
   </si>
   <si>
-    <t>Modelo de implementacion</t>
-  </si>
-  <si>
     <t>Diseño de sospechosos hardcodeados</t>
   </si>
   <si>
@@ -505,27 +457,9 @@
     <t>Verificación</t>
   </si>
   <si>
-    <t>Correccion de bugs y re-diseño del caso de uso HardCoded de sospechosos</t>
-  </si>
-  <si>
-    <t>Correción de bugs - En la nube</t>
-  </si>
-  <si>
-    <t>Problemas con SQL - Azure, al genrar la base</t>
-  </si>
-  <si>
-    <t>Implementacón y testing del caso de uso  HardCoded de sospechosos</t>
-  </si>
-  <si>
-    <t>AutoEstudio</t>
-  </si>
-  <si>
     <t>Estudiando el MUM</t>
   </si>
   <si>
-    <t>Subiendo a la nube el proyecto, e investigando por qué tira el error de sql azure</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -547,12 +481,6 @@
     <t>Implementar las clases</t>
   </si>
   <si>
-    <t>Terminando la parte de multiusuario, faltaba más de lo esperado...y corrigiendo algunos warnings del stylecop. Falta la conexión con el telefono.</t>
-  </si>
-  <si>
-    <t>Reunión para evaluar el diseño de la implementaciòn del tiempo en el juego, a prtir del documento de Juan.</t>
-  </si>
-  <si>
     <t>Esfuerzo Rol / consolidado</t>
   </si>
   <si>
@@ -601,15 +529,9 @@
     <t>Esfuerzo estimado consolidado</t>
   </si>
   <si>
-    <t>Tabla esfuerzo areas / consolidado</t>
-  </si>
-  <si>
     <t>Horas realizadas consolidado</t>
   </si>
   <si>
-    <t>Analisis</t>
-  </si>
-  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -629,6 +551,78 @@
   </si>
   <si>
     <t>Formación y entrenamiento</t>
+  </si>
+  <si>
+    <t>Alejandro García</t>
+  </si>
+  <si>
+    <t>Evaluación y Ajustes de Plan VyV</t>
+  </si>
+  <si>
+    <t>Implementando la función para que retorne las pistas según el nivel del jugador</t>
+  </si>
+  <si>
+    <t>Implementación y testing de la función para chequear la consistencia de los sospechosos e integración del caso de uso HardCoded de sospechosos</t>
+  </si>
+  <si>
+    <t>Reunión para evaluar el diseño de la implementación del tiempo en el juego, a partir del documento de Juan.</t>
+  </si>
+  <si>
+    <t>Corrección de bugs</t>
+  </si>
+  <si>
+    <t>Corrección de bus</t>
+  </si>
+  <si>
+    <t>Pagina para consola de administración, intégrala al proyecto</t>
+  </si>
+  <si>
+    <t>Estuve buscando la manera de testar la página de administración dado que el problema de permisos en mi PC persiste y al problema de estilos se había sumado el de Ajax, al final encontré una forma de hacerlo y pude terminar la misma.</t>
+  </si>
+  <si>
+    <t>Información ciudades + imágenes</t>
+  </si>
+  <si>
+    <t>Imágenes de las ciudades + cargar base con valores de coordenadas correctos</t>
+  </si>
+  <si>
+    <t>Juntada con implementadores para ver lo que faltaría de aquí en mas, application bar, corrección y agregados de pantallas en general.</t>
+  </si>
+  <si>
+    <t>Investigación sobre control del volumen en el phone mediante utilización de slider. Faltaría adaptarlo a la nueva pantalla de Options.</t>
+  </si>
+  <si>
+    <t>Modelo de implementación</t>
+  </si>
+  <si>
+    <t>Corrección de bugs y re-diseño del caso de uso HardCoded de sospechosos</t>
+  </si>
+  <si>
+    <t>Corrección de bugs - En la nube</t>
+  </si>
+  <si>
+    <t>Problemas con SQL - Azure, al general la base</t>
+  </si>
+  <si>
+    <t>Implementación y testing del caso de uso  HardCoded de sospechosos</t>
+  </si>
+  <si>
+    <t>Reunión con Diego para evaluar el diseño de la implementación del tiempo en el juego, a partir del documento de Juan.</t>
+  </si>
+  <si>
+    <t>Subiendo a la nube el proyecto, e investigando por qué tira el error de SQL Azure</t>
+  </si>
+  <si>
+    <t>Terminando la parte de multiusuario, faltaba más de lo esperado...y corrigiendo algunos warnings del (No hay sugerencias). Falta la conexión con el teléfono.</t>
+  </si>
+  <si>
+    <t>Total Analistas</t>
+  </si>
+  <si>
+    <t>Tabla esfuerzo áreas / consolidado</t>
+  </si>
+  <si>
+    <t>Análisis</t>
   </si>
 </sst>
 </file>
@@ -992,7 +986,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1208,24 +1202,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="89813760"/>
-        <c:axId val="89816448"/>
+        <c:axId val="70109056"/>
+        <c:axId val="70110592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89813760"/>
+        <c:axId val="70109056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89816448"/>
+        <c:crossAx val="70110592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89816448"/>
+        <c:axId val="70110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1227,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89813760"/>
+        <c:crossAx val="70109056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1248,7 +1242,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1256,7 +1250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1264,7 +1258,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1480,24 +1474,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="90640768"/>
-        <c:axId val="90642304"/>
+        <c:axId val="70131072"/>
+        <c:axId val="70132864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90640768"/>
+        <c:axId val="70131072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90642304"/>
+        <c:crossAx val="70132864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90642304"/>
+        <c:axId val="70132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1499,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90640768"/>
+        <c:crossAx val="70131072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1514,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1528,7 +1522,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1537,7 +1531,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1545,24 +1539,24 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:gapWidth val="100"/>
-        <c:axId val="40168832"/>
-        <c:axId val="74589312"/>
+        <c:axId val="70172672"/>
+        <c:axId val="70174208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40168832"/>
+        <c:axId val="70172672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74589312"/>
+        <c:crossAx val="70174208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74589312"/>
+        <c:axId val="70174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1564,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40168832"/>
+        <c:crossAx val="70172672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1585,7 +1579,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1593,7 +1587,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1601,7 +1595,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1713,24 +1707,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="90723456"/>
-        <c:axId val="90724992"/>
+        <c:axId val="71181056"/>
+        <c:axId val="71182592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90723456"/>
+        <c:axId val="71181056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90724992"/>
+        <c:crossAx val="71182592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90724992"/>
+        <c:axId val="71182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1732,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90723456"/>
+        <c:crossAx val="71181056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1753,7 +1747,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1761,7 +1755,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1769,7 +1763,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1884,24 +1878,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="93416448"/>
-        <c:axId val="93422336"/>
+        <c:axId val="71215360"/>
+        <c:axId val="71229440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93416448"/>
+        <c:axId val="71215360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93422336"/>
+        <c:crossAx val="71229440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93422336"/>
+        <c:axId val="71229440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1903,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93416448"/>
+        <c:crossAx val="71215360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,7 +1918,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1932,7 +1926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1940,7 +1934,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2058,7 +2052,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2066,7 +2060,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2074,7 +2068,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2192,7 +2186,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2200,7 +2194,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2402,14 +2396,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3387,7 +3381,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3408,20 +3402,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3430,16 +3424,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3448,20 +3442,20 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3471,90 +3465,90 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="16">
         <v>1.5</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18">
         <v>8</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -3629,7 +3623,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -3652,7 +3646,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3675,12 +3669,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3688,7 +3682,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3697,19 +3691,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3717,127 +3711,127 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
       </c>
       <c r="E9" s="7"/>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="7"/>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
       </c>
       <c r="E11" s="7"/>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -3897,7 +3891,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -3920,7 +3914,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3941,20 +3935,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3963,16 +3957,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3981,23 +3975,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4006,62 +4000,62 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="18">
         <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5">
       <c r="A8" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D8" s="18">
         <v>2.5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
@@ -4161,7 +4155,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="23">
         <f>SUM(D4:D30)</f>
@@ -4184,7 +4178,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4207,20 +4201,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -4229,19 +4223,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4249,22 +4243,22 @@
     </row>
     <row r="5" spans="1:11" s="29" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D5" s="18">
         <v>0.5</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -4274,99 +4268,99 @@
     </row>
     <row r="6" spans="1:11" s="29" customFormat="1">
       <c r="A6" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D6" s="18">
         <v>1.5</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="29" customFormat="1">
       <c r="A7" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" ht="38.25">
       <c r="A8" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D8" s="18">
         <v>2</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="29" customFormat="1">
       <c r="A9" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D9" s="18">
         <v>0.5</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" ht="25.5">
       <c r="A10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>80</v>
-      </c>
       <c r="C10" s="28" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D10" s="18">
         <v>9</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
@@ -4435,7 +4429,7 @@
     </row>
     <row r="29" spans="3:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -4457,8 +4451,8 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4472,19 +4466,19 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -4498,7 +4492,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
@@ -4506,17 +4500,17 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="36" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
@@ -4528,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D7" s="36">
         <v>82.5</v>
@@ -4536,14 +4530,14 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"D*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"D*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"D*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"D*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"D*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"D*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"D*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"D*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"D*")</f>
         <v>5</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D8" s="36">
         <v>88</v>
@@ -4551,14 +4545,14 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"I*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"I*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"I*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"I*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"I*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"I*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"I*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"I*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"I*")</f>
         <v>124</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="36">
         <v>675.5</v>
@@ -4573,7 +4567,7 @@
         <v>8.5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D10" s="36">
         <v>142.5</v>
@@ -4581,14 +4575,14 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"C*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"C*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"C*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"C*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"C*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"C*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"C*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"C*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"C*")</f>
         <v>2.5</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D11" s="36">
         <v>24.5</v>
@@ -4603,7 +4597,7 @@
         <v>10.5</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D12" s="36">
         <v>344</v>
@@ -4611,14 +4605,14 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"V*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"V*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"V*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"V*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"V*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"V*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"V*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"V*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"V*")</f>
         <v>24</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D13" s="36">
         <v>154.5</v>
@@ -4626,14 +4620,14 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"U*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"U*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"U*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"U*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"U*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"U*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"U*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"U*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"U*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D14" s="36">
         <v>4</v>
@@ -4641,14 +4635,14 @@
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"P*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"P*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"P*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"P*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"P*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"P*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"P*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"P*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"P*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D15" s="36">
         <v>7</v>
@@ -4656,14 +4650,14 @@
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="26">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"E*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"E*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"E*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"E*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"E*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"E*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"E*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"E*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"E*")</f>
         <v>11.5</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D16" s="36">
         <v>581</v>
@@ -4678,22 +4672,22 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="36" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="B19" s="24">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!F5:'2 _ Diego Ricca'!F28,"Si") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!F5:'7 _ José Cordero'!F28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!F5:'9 _ Leticia Vilariño'!F28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!F5:'11 _ Martín Taruselli'!F28,D5)</f>
         <v>0</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D19" s="36">
         <v>219.5</v>
@@ -4701,11 +4695,11 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="36" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -4713,14 +4707,14 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="25">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!F5:'10 _ Marcos Sander'!F28,D5)</f>
         <v>3</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D21" s="36">
         <v>124</v>
@@ -4728,14 +4722,14 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="25">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!H5:'10 _ Marcos Sander'!H28,D5)</f>
         <v>0</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D22" s="36">
         <v>4</v>
@@ -4750,7 +4744,7 @@
         <v>125.5</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D23" s="36">
         <v>727</v>
@@ -4758,14 +4752,14 @@
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="25">
         <f xml:space="preserve"> SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!F5:'3 _ Federico Andrade'!F28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!F5:'4 _ Federico Trinidad'!F28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!F5:'5 _ Ignacio Infante'!F28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!G5:'12 _ Vicente Acosta'!G28,D5)</f>
         <v>0</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D24" s="36">
         <v>337.5</v>
@@ -4780,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D25" s="36">
         <v>159</v>
@@ -4795,7 +4789,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D26" s="36">
         <v>53</v>
@@ -4803,14 +4797,14 @@
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!F5:'1 _ Alejandro Garcia'!F28,D5) + SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!G5:'1 _ Alejandro Garcia'!G28,D5)</f>
         <v>16.5</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D27" s="36">
         <v>186</v>
@@ -4818,14 +4812,14 @@
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="25">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!G5:'6 _ Javier Madeiro'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!H5:'7 _ José Cordero'!H28,D5) + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!G5:'8 _ Juan Ghiringhelli'!G28,D5) + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!G5:'10 _ Marcos Sander'!G28,D5)</f>
         <v>10.5</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D28" s="36">
         <v>34.5</v>
@@ -4833,14 +4827,14 @@
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="25">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!F5:'8 _ Juan Ghiringhelli'!F28,D5)</f>
         <v>13</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D29" s="36">
         <v>163</v>
@@ -4848,14 +4842,14 @@
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="25">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!H5:'8 _ Juan Ghiringhelli'!H28,D5)</f>
         <v>1</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D30" s="36">
         <v>7</v>
@@ -4863,7 +4857,7 @@
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="9"/>
@@ -4872,13 +4866,13 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="36" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -4890,14 +4884,14 @@
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B34" s="24">
         <f>SUM( '1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28)</f>
         <v>16.5</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D34" s="36">
         <v>165</v>
@@ -4908,14 +4902,14 @@
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="25">
         <f>SUM( '2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28)</f>
         <v>14.5</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="36">
         <v>165</v>
@@ -4926,14 +4920,14 @@
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="25">
         <f>SUM( '3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28)</f>
         <v>14</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="36">
         <v>165</v>
@@ -4944,14 +4938,14 @@
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="25">
         <f>SUM( '4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28)</f>
         <v>10</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="36">
         <v>165</v>
@@ -4998,14 +4992,14 @@
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="25">
         <f>SUM( '7 _ José Cordero'!D5:'7 _ José Cordero'!D28)</f>
         <v>16</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="36">
         <v>165</v>
@@ -5034,14 +5028,14 @@
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="25">
         <f>SUM( '9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28)</f>
         <v>15</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="36">
         <v>165</v>
@@ -5070,14 +5064,14 @@
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="25">
         <f>SUM( '11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28)</f>
         <v>14.5</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="36">
         <v>165</v>
@@ -5088,14 +5082,14 @@
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="26">
         <f>SUM( '12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28)</f>
         <v>14.5</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="36">
         <v>165</v>
@@ -5132,7 +5126,7 @@
   <sheetPr codeName="Hoja14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5153,7 +5147,7 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -5174,8 +5168,8 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5191,7 +5185,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5212,20 +5206,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5234,16 +5228,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5252,23 +5246,23 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5277,62 +5271,62 @@
     </row>
     <row r="6" spans="1:11" ht="25.5">
       <c r="A6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>80</v>
-      </c>
       <c r="C6" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="18">
         <v>6</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5">
       <c r="A7" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7" s="20">
         <v>2.5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5">
       <c r="A8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
@@ -5449,7 +5443,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(D4:D28)</f>
@@ -5472,7 +5466,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5494,20 +5488,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5516,16 +5510,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5534,13 +5528,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
@@ -5548,7 +5542,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5557,37 +5551,37 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>6</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -5684,7 +5678,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <f>SUM(D5:D29)</f>
@@ -5704,7 +5698,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5726,20 +5720,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5748,16 +5742,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5766,23 +5760,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5791,22 +5785,22 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D6" s="18">
         <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
@@ -5887,7 +5881,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -5909,8 +5903,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5934,12 +5928,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5947,7 +5941,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5956,16 +5950,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5974,13 +5968,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
@@ -5988,7 +5982,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5997,65 +5991,65 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D6" s="18">
         <v>4</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D7" s="18">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D9" s="18">
         <v>5</v>
@@ -6063,25 +6057,25 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D10" s="18">
         <v>8</v>
       </c>
       <c r="E10" s="7"/>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -6155,7 +6149,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6177,9 +6171,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -6201,12 +6193,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -6214,7 +6206,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6223,16 +6215,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6241,22 +6233,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6266,137 +6258,137 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D7" s="18">
         <v>1.5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D8" s="18">
         <v>1.5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D9" s="18">
         <v>0.5</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -6449,7 +6441,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6472,7 +6464,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6496,20 +6488,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6518,19 +6510,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6538,64 +6530,64 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D7" s="18">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -6679,7 +6671,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6702,7 +6694,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6725,12 +6717,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -6738,7 +6730,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6747,19 +6739,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6767,22 +6759,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6792,142 +6784,142 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D11" s="34">
         <v>4</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -6992,7 +6984,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -7014,8 +7006,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7036,20 +7028,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -7058,19 +7050,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -7078,23 +7070,23 @@
     </row>
     <row r="5" spans="1:11" ht="25.5">
       <c r="A5" s="27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -7103,42 +7095,42 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D7" s="18">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -7229,7 +7221,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <f>SUM(D5:D29)</f>
